--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C564A26-8D96-4A23-B093-69B8F65660E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0CBF32-EF94-42E9-8747-523FE9D1B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5520293D-6486-4049-91A1-FD00C2101DE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB113629-03AA-420D-BD1B-EE94786161CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C905C-132E-4778-A603-2E031C341AF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3D028-2163-459B-8FC2-EE81F39A7D2D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f17_4RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0CBF32-EF94-42E9-8747-523FE9D1B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AD8A8-2B70-4270-825F-6229331A5764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB113629-03AA-420D-BD1B-EE94786161CB}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E3D25BF5-F17C-4275-8F51-46717A825C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3D028-2163-459B-8FC2-EE81F39A7D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C83EF-2D5D-4803-ABF3-77D15BE723FD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AD8A8-2B70-4270-825F-6229331A5764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33190F70-2C7E-48F6-8F35-E2C419F84EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E3D25BF5-F17C-4275-8F51-46717A825C15}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{23D7D357-EAB7-4A54-854C-308205F73DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C83EF-2D5D-4803-ABF3-77D15BE723FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F033E3-E19F-4CE6-9B69-224DF8013CF3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
